--- a/biology/Médecine/Noyau_salivaire/Noyau_salivaire.xlsx
+++ b/biology/Médecine/Noyau_salivaire/Noyau_salivaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les noyaux salivaires correspondent au noyau salivaire supérieur et au noyau salivaire inférieur qui innervent les glandes salivaires.
-Ils sont situés dans le tegmentum pontique du tronc cérébral[1].
-Le noyau salivaire supérieur innerve les glandes lacrymales, sous-maxillaire et sublinguale et fait partie du nerf facial [1].
-Le noyau salivaire inférieur innerve la glande parotide par l'intermédiaire du ganglion otique et forme la composante parasympathique du nerf glosso-pharyngien[1].
+Ils sont situés dans le tegmentum pontique du tronc cérébral.
+Le noyau salivaire supérieur innerve les glandes lacrymales, sous-maxillaire et sublinguale et fait partie du nerf facial .
+Le noyau salivaire inférieur innerve la glande parotide par l'intermédiaire du ganglion otique et forme la composante parasympathique du nerf glosso-pharyngien.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Noyau salivaire supérieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau salivaire supérieur du nerf facial est un noyau de nerf crânien viscéro-moteur.
 Il est situé dans la partie caudale de la protubérance et formé par un rassemblement  de neurones cholinergiques.
@@ -551,7 +565,9 @@
           <t>Noyau salivaire inférieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le noyau salivaire inférieur est un noyau de nerf crânien parasympathique.
 Il est situé dans la partie rostrale du bulbe rachidien latéralement à la formation réticulée, immédiatement caudal au noyau salivaire supérieur.
